--- a/_appData/bastp_jadi.xlsx
+++ b/_appData/bastp_jadi.xlsx
@@ -228,7 +228,7 @@
     <t>dua ribu dua puluh</t>
   </si>
   <si>
-    <t>0007/BAPB/SEKR-PUPR/2020</t>
+    <t>0007/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>Ingkan J. M. Pinontoan, ST</t>
@@ -321,7 +321,7 @@
     <t>dua puluh tujuh</t>
   </si>
   <si>
-    <t>0010/BAPB/SEKR-PUPR/2020</t>
+    <t>0010/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0010/BAST-SEKRE/DPUPR/2020</t>
@@ -360,7 +360,7 @@
     <t>dua puluh delapan</t>
   </si>
   <si>
-    <t>0012/BAPB/SEKR-PUPR/2020</t>
+    <t>0012/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0012/BAST-SEKRE/DPUPR/2020</t>
@@ -402,16 +402,16 @@
     <t>Tinta Toner Laser</t>
   </si>
   <si>
-    <t>0014/BAPB/SEKR-PUPR/2020</t>
-  </si>
-  <si>
-    <t>0014/BAST-SEKRE/DPUPR/2020</t>
+    <t>0014/BAST.01/SEK-PUPR/2020</t>
+  </si>
+  <si>
+    <t>0014/BAST/SEKR-PUPR/2020</t>
   </si>
   <si>
     <t>tiga puluh</t>
   </si>
   <si>
-    <t>0017/BAPB/SEKR-PUPR/2020</t>
+    <t>0017/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0017/BAST-SEKRE/DPUPR/2020</t>
@@ -429,7 +429,7 @@
     <t>Februari</t>
   </si>
   <si>
-    <t>0025/BAPB/SEKR-PUPR/2020</t>
+    <t>0025/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0025/BAST-SEKRE/DPUPR/2020</t>
@@ -444,7 +444,7 @@
     <t>dua puluh lima</t>
   </si>
   <si>
-    <t>0027/BAPB/SEKR-PUPR/2020</t>
+    <t>0027/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0027/BAST-SEKRE/DPUPR/2020</t>
@@ -504,13 +504,13 @@
     <t>Yuri Handsoap grape</t>
   </si>
   <si>
-    <t>0113/BAPB/SEKR-PUPR/2020</t>
+    <t>0113/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0113/BAST-SEKRE/DPUPR/2020</t>
   </si>
   <si>
-    <t>0030/BAPB/SEKR-PUPR/2020</t>
+    <t>0030/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0030/BAST-SEKRE/DPUPR/2020</t>
@@ -783,7 +783,7 @@
     <t>Cap (Stempel)</t>
   </si>
   <si>
-    <t>0118/BAPB/SEKR-PUPR/2020</t>
+    <t>0118/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0118/BAST-SEKRE/DPUPR/2020</t>
@@ -807,7 +807,7 @@
     <t>Juli</t>
   </si>
   <si>
-    <t>0133/BAPB/SEKR-PUPR/2020</t>
+    <t>0133/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0133/BAST-SEKRE/DPUPR/2020</t>
@@ -816,13 +816,13 @@
     <t>01 Juli 2020</t>
   </si>
   <si>
-    <t>0135/BAPB/SEKR-PUPR/2020</t>
+    <t>0135/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0135/BAST-SEKRE/DPUPR/2020</t>
   </si>
   <si>
-    <t>0137/BAPB/SEKR-PUPR/2020</t>
+    <t>0137/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0137/BAST-SEKRE/DPUPR/2020</t>
@@ -849,7 +849,7 @@
     <t>Oktober</t>
   </si>
   <si>
-    <t>0184/BAST.P-SEKR/PUPR/2020</t>
+    <t>0184/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0184/BAST-SEKRE/DPUPR/2020</t>
@@ -858,7 +858,7 @@
     <t>07 Oktober 2020</t>
   </si>
   <si>
-    <t>0185/BAST.P-SEKR/PUPR/2020</t>
+    <t>0185/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0185/BAST-SEKRE/DPUPR/2020</t>
@@ -882,7 +882,7 @@
     <t>sembilan belas</t>
   </si>
   <si>
-    <t>0193/BAST.P-SEKR/PUPR/2020</t>
+    <t>0193/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0193/BAST-SEKRE/DPUPR/2020</t>
@@ -897,7 +897,7 @@
     <t>November</t>
   </si>
   <si>
-    <t>0197/BAST.P-SEKR/PUPR/2020</t>
+    <t>0197/BAST.01/SEK-PUPR/2020</t>
   </si>
   <si>
     <t>0197/BAST-SEKRE/DPUPR/2020</t>
@@ -3004,7 +3004,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0030/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0030/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3519,9 +3519,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0030-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4470,9 +4470,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R01-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5246,9 +5246,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R03-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6022,9 +6022,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R01_2-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -6798,9 +6798,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R05-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7749,9 +7749,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R05_2-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8475,9 +8475,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R07-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9201,9 +9201,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R09-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9927,9 +9927,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R12-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11028,9 +11028,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R06-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11139,7 +11139,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0007/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0007/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -11854,9 +11854,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0007-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11965,7 +11965,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0118/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0118/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -12380,9 +12380,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0118-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12491,7 +12491,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0133/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0133/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -12831,9 +12831,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0133-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12942,7 +12942,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0135/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0135/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -13657,9 +13657,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0135-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13768,7 +13768,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0137/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0137/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -14283,9 +14283,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0137-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14934,9 +14934,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0162-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15045,7 +15045,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0184/BAST.P-SEKR/PUPR/2020</v>
+        <v>NO : 0184/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -15385,9 +15385,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0184-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15496,7 +15496,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0185/BAST.P-SEKR/PUPR/2020</v>
+        <v>NO : 0185/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -16236,9 +16236,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0185-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16937,9 +16937,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0186-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17048,7 +17048,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0193/BAST.P-SEKR/PUPR/2020</v>
+        <v>NO : 0193/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -17488,9 +17488,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0193-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17599,7 +17599,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0197/BAST.P-SEKR/PUPR/2020</v>
+        <v>NO : 0197/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -18089,9 +18089,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0197-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18200,7 +18200,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0010/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0010/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -18715,9 +18715,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0010-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18826,7 +18826,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0012/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0012/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -19441,9 +19441,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0012-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19552,7 +19552,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0014/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0014/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -20024,7 +20024,7 @@
       <c r="A35" s="22" t="str">
         <f>"Sesuai dengan Dokumen Pengadaan Nomor: "&amp;Q6&amp;", tanggal "&amp;Q7&amp;".
 Demikian berita acara di buat dengan benar untuk dipergunakan sebagaimana mestinya."</f>
-        <v>Sesuai dengan Dokumen Pengadaan Nomor: 0014/BAST-SEKRE/DPUPR/2020, tanggal 28 Januari 2020.
+        <v>Sesuai dengan Dokumen Pengadaan Nomor: 0014/BAST/SEKR-PUPR/2020, tanggal 28 Januari 2020.
 Demikian berita acara di buat dengan benar untuk dipergunakan sebagaimana mestinya.</v>
       </c>
       <c r="B35" s="22"/>
@@ -20117,9 +20117,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0014-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20228,7 +20228,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0017/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0017/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -20568,9 +20568,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0017-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20679,7 +20679,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0025/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0025/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -21269,9 +21269,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0025-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -21380,7 +21380,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0027/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0027/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -22170,9 +22170,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0027-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -22281,7 +22281,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="str">
         <f>"NO : "&amp;Q5</f>
-        <v>NO : 0113/BAPB/SEKR-PUPR/2020</v>
+        <v>NO : 0113/BAST.01/SEK-PUPR/2020</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -22621,9 +22621,9 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="14" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;R0113-&amp;P(&amp;N)</oddFooter>
+    <oddFooter>&amp;R&amp;A-&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
